--- a/excel/import_data_stockout.xlsx
+++ b/excel/import_data_stockout.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>NAMA BARANG</t>
   </si>
@@ -43,30 +43,6 @@
   </si>
   <si>
     <t>NO LAST SURAT JALAN</t>
-  </si>
-  <si>
-    <t>KEYBOARD</t>
-  </si>
-  <si>
-    <t>VARDE</t>
-  </si>
-  <si>
-    <t>RUSAK</t>
-  </si>
-  <si>
-    <t>khairulsholech@gmail.com</t>
-  </si>
-  <si>
-    <t>05/08/2019</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>IT/IJSM/VIII/2019/01</t>
-  </si>
-  <si>
-    <t>01</t>
   </si>
 </sst>
 </file>
@@ -102,12 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -411,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,35 +432,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
